--- a/Connection_Configs/Connection_Configs.xlsx
+++ b/Connection_Configs/Connection_Configs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79137\Pasha\Bachelor Thesis Project\Project\Connection_Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE2D97-1115-4FB7-8016-9BCB28642100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC343A-E359-40A0-9B0A-43C3D8D9F2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21564" yWindow="2028" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Protocol</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>COM Port</t>
+  </si>
+  <si>
+    <t>COM3</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,8 +420,8 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2">
         <v>9600</v>

--- a/Connection_Configs/Connection_Configs.xlsx
+++ b/Connection_Configs/Connection_Configs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79137\Pasha\Bachelor Thesis Project\Project\Connection_Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC343A-E359-40A0-9B0A-43C3D8D9F2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92612D-BF55-476D-8148-ECC2B44D4F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-408" yWindow="2436" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>Protocol</t>
   </si>
@@ -52,13 +52,22 @@
   </si>
   <si>
     <t>COM3</t>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +82,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +442,348 @@
         <v>9600</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>9600</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Connection_Configs/Connection_Configs.xlsx
+++ b/Connection_Configs/Connection_Configs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79137\Pasha\Bachelor Thesis Project\Project\Connection_Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92612D-BF55-476D-8148-ECC2B44D4F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1F9F4-DA9C-4D8F-833B-38374A833979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-408" yWindow="2436" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Connection_Configs/Connection_Configs.xlsx
+++ b/Connection_Configs/Connection_Configs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79137\Pasha\Bachelor Thesis Project\Project\Connection_Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1F9F4-DA9C-4D8F-833B-38374A833979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAABBC5-82DD-4A3C-8537-199CAA40905C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>Protocol</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>COM Port</t>
-  </si>
-  <si>
-    <t>COM3</t>
   </si>
   <si>
     <t>ascii</t>
@@ -394,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,13 +410,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -435,16 +426,13 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -455,96 +443,81 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -555,16 +528,13 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -575,94 +545,79 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -675,14 +630,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -695,14 +647,11 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -710,19 +659,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -730,19 +676,16 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -750,19 +693,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -770,15 +710,12 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>9600</v>
       </c>
     </row>

--- a/Connection_Configs/Connection_Configs.xlsx
+++ b/Connection_Configs/Connection_Configs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79137\Pasha\Bachelor Thesis Project\Project\Connection_Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAABBC5-82DD-4A3C-8537-199CAA40905C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E312A9-265E-4331-9B63-4431E015D3A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>9600</v>
+        <v>115200</v>
       </c>
     </row>
   </sheetData>
